--- a/Results/Test D and F/Summary.xlsx
+++ b/Results/Test D and F/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\GitHub\Heuristieken\Results\Test D and F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{631A2F28-6CDA-4523-9B96-6BF4606B90AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{43806BE0-D923-4723-94E9-8C1D17BBA0FA}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{631A2F28-6CDA-4523-9B96-6BF4606B90AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9A9C925A-47C3-435C-90D7-B2B3A8610C34}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{B8B14CB4-2825-464E-9C6C-A4807DA09811}"/>
   </bookViews>
@@ -92,6 +92,1983 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wijk 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D8D-4851-8C72-DF258C440CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wijk 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D8D-4851-8C72-DF258C440CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wijk 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D8D-4851-8C72-DF258C440CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="517934896"/>
+        <c:axId val="529014088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517934896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529014088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="529014088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517934896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wijk 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24390</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA0F-4F2C-AB03-4E015A291D9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wijk 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA0F-4F2C-AB03-4E015A291D9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wijk 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA0F-4F2C-AB03-4E015A291D9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="635566440"/>
+        <c:axId val="635565784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="635566440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635565784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635565784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635566440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A955AE8-FDF0-42C0-B7A9-948F81E3FA13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369BBF34-7552-4200-A3C6-62F632A98125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BED51-5CD3-4ABC-B54D-4F92E3041A94}">
   <dimension ref="A2:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,5 +2512,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/Test D and F/Summary.xlsx
+++ b/Results/Test D and F/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\GitHub\Heuristieken\Results\Test D and F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{631A2F28-6CDA-4523-9B96-6BF4606B90AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9A9C925A-47C3-435C-90D7-B2B3A8610C34}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{631A2F28-6CDA-4523-9B96-6BF4606B90AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4DA5FFC8-47B8-49A4-89AD-B4C552E375CB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{B8B14CB4-2825-464E-9C6C-A4807DA09811}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Wijk 1</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Wijk 3</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -2368,15 +2371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BED51-5CD3-4ABC-B54D-4F92E3041A94}">
-  <dimension ref="A2:M5"/>
+  <dimension ref="A2:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>5</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>27747</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>27900</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2508,6 +2511,9 @@
       </c>
       <c r="M5">
         <v>27063</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Test D and F/Summary.xlsx
+++ b/Results/Test D and F/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\GitHub\Heuristieken\Results\Test D and F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{631A2F28-6CDA-4523-9B96-6BF4606B90AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4DA5FFC8-47B8-49A4-89AD-B4C552E375CB}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{631A2F28-6CDA-4523-9B96-6BF4606B90AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{28EFF6D6-B127-4C86-B736-6F8231C4D734}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{B8B14CB4-2825-464E-9C6C-A4807DA09811}"/>
   </bookViews>
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BED51-5CD3-4ABC-B54D-4F92E3041A94}">
   <dimension ref="A2:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,6 +2518,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>